--- a/biology/Botanique/Clerodendrum_paniculatum/Clerodendrum_paniculatum.xlsx
+++ b/biology/Botanique/Clerodendrum_paniculatum/Clerodendrum_paniculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clerodendrum paniculatum est une espèce d’arbustes de la famille des Verbenaceae ou des Lamiaceae (en classification phylogénétique) originaire d'Asie du Sud Est.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clerodendron pyramidale Andrews
 Clerodendrum diversifolium Vahl, D'Arcy.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste d'une hauteur de 2 mètres avec les fleurs en panicule pyramidale.
 </t>
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 100 et 500 m d'altitude en Chine (Fujian, Guangdong), Taiwan, Bangladesh, Cambodge, Indonésie, Laos, Malaisie, Myanmar, Thaïlande et Vietnam.
 </t>
